--- a/Bug_report(eng_version).xlsx
+++ b/Bug_report(eng_version).xlsx
@@ -66,12 +66,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Severity of the bug</t>
-  </si>
-  <si>
-    <t>Priority of bug fixing</t>
-  </si>
-  <si>
     <t>Attached file</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>4. Click "continue"</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -424,51 +424,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -485,6 +440,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -495,6 +459,42 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +800,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,226 +813,219 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="22">
         <v>45028</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
@@ -1044,6 +1037,13 @@
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
